--- a/Datos/4_total-ghg-emissions-excluding-lufc.xlsx
+++ b/Datos/4_total-ghg-emissions-excluding-lufc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xllEs\Documents\2021 - IISem\Visualización de infomación\Proyecto final\Estado-del-mundo-Proyecto-final-Visualizacion-de-informacion\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19455BC3-B19F-4239-8F2F-CE0D720053D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B2624-28AE-47E8-A7F6-31C8DCC04E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,7 +1179,7 @@
     <t>ZWE</t>
   </si>
   <si>
-    <t>emisiones</t>
+    <t>Emisiones</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1244,7 @@
     <tableColumn id="1" xr3:uid="{00F70389-100E-46FA-9B15-FF3647283DD5}" name="Entity"/>
     <tableColumn id="2" xr3:uid="{ED2AB9F1-BECC-4F51-9BFF-596769D38F6D}" name="Code"/>
     <tableColumn id="3" xr3:uid="{1F224403-795F-4CDD-817B-08DE88413DB5}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{AF9E2E22-97EF-4F0B-9785-70F2F094D5FF}" name="emisiones"/>
+    <tableColumn id="4" xr3:uid="{AF9E2E22-97EF-4F0B-9785-70F2F094D5FF}" name="Emisiones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1629" workbookViewId="0">
-      <selection activeCell="A1598" sqref="A1598"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
